--- a/biology/Zoologie/Corseria/Corseria.xlsx
+++ b/biology/Zoologie/Corseria/Corseria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corseria est un genre de mollusques de la famille des Moitessieriidae. La seule espèce vivante identifiée d'après World Register of Marine Species                               (17 août 2019)[1] est Corseria corsica, espèce localisée sur l'île de Corse, en France en 1994[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corseria est un genre de mollusques de la famille des Moitessieriidae. La seule espèce vivante identifiée d'après World Register of Marine Species                               (17 août 2019) est Corseria corsica, espèce localisée sur l'île de Corse, en France en 1994.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (11 septembre 2019)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (11 septembre 2019) :
 Corseria corsica (R. Bernasconi, 1994)</t>
         </is>
       </c>
